--- a/www/ig/fhir/core/2.0.0-ballot/StructureDefinition-fr-core-organization-budget-letter.xlsx
+++ b/www/ig/fhir/core/2.0.0-ballot/StructureDefinition-fr-core-organization-budget-letter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:40:49+01:00</t>
+    <t>2024-02-20T11:14:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/2.0.0-ballot/StructureDefinition-fr-core-organization-budget-letter.xlsx
+++ b/www/ig/fhir/core/2.0.0-ballot/StructureDefinition-fr-core-organization-budget-letter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:14:35+01:00</t>
+    <t>2024-02-20T11:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
